--- a/jupyter_notebooks/file/input/project_brussel_test_v2/network.xlsx
+++ b/jupyter_notebooks/file/input/project_brussel_test_v2/network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ResiliencyTool\jupyter_notebooks\file\input\project_brussels_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/mn6461_engie_com/Documents/Dokumente/GitHub/reXplan-repo/jupyter_notebooks/file/input/project_brussel_test_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB97A1F-A86B-412C-9F0D-3AE029E3DD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1CB97A1F-A86B-412C-9F0D-3AE029E3DD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAE6C13-41A7-4542-9C29-F028F91304CA}"/>
   <bookViews>
-    <workbookView xWindow="-28320" yWindow="480" windowWidth="21600" windowHeight="11325" tabRatio="704" activeTab="7" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-25320" yWindow="-8805" windowWidth="25440" windowHeight="15270" tabRatio="704" activeTab="8" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="switches" sheetId="14" r:id="rId6"/>
     <sheet name="cost" sheetId="10" r:id="rId7"/>
     <sheet name="generators" sheetId="2" r:id="rId8"/>
-    <sheet name="external_gen" sheetId="9" r:id="rId9"/>
-    <sheet name="tr_type" sheetId="6" r:id="rId10"/>
-    <sheet name="transformers" sheetId="3" r:id="rId11"/>
-    <sheet name="ln_type" sheetId="7" r:id="rId12"/>
-    <sheet name="lines" sheetId="4" r:id="rId13"/>
-    <sheet name="crews" sheetId="13" r:id="rId14"/>
+    <sheet name="static_generators" sheetId="15" r:id="rId9"/>
+    <sheet name="external_gen" sheetId="9" r:id="rId10"/>
+    <sheet name="tr_type" sheetId="6" r:id="rId11"/>
+    <sheet name="transformers" sheetId="3" r:id="rId12"/>
+    <sheet name="ln_type" sheetId="7" r:id="rId13"/>
+    <sheet name="lines" sheetId="4" r:id="rId14"/>
+    <sheet name="crews" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1258,8 +1259,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1543,7 +1544,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -1614,6 +1615,116 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>-1000</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>-1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD17E09-C6E9-4EE3-B588-F4BAB32A1513}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -1621,7 +1732,7 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1846,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2EA6-5FEC-471F-BC99-9A1BBFAA5478}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -1854,7 +1965,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -2298,7 +2409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B643028-F04F-4526-8B5B-4E99E7FCEC09}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -2306,7 +2417,7 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -2398,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
   <dimension ref="A1:S34"/>
   <sheetViews>
@@ -2406,7 +2517,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -3494,7 +3605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA625533-3B9A-44F8-8593-9BC4C933B1AA}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -3502,7 +3613,7 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3541,7 +3652,7 @@
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12" customWidth="1"/>
@@ -24472,7 +24583,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -24506,7 +24617,7 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="5.77734375" customWidth="1"/>
@@ -26083,7 +26194,7 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
@@ -26562,7 +26673,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
@@ -26677,7 +26788,7 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -26963,11 +27074,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB5B7B5-BF13-4654-A134-6B30DC3D029F}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
@@ -27151,112 +27262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AA743B-5255-4A99-ACDB-A5315D52DA36}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2">
-        <v>-1000</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-      <c r="L2">
-        <v>-1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
